--- a/Codes/dark_frames/Data/for_antor/SNPP_2022_mooncycles.xlsx
+++ b/Codes/dark_frames/Data/for_antor/SNPP_2022_mooncycles.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antor/Documents/EOG/Codes/dark_frames/Data/for_antor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02229DAA-CC9D-4C42-9120-22B02235F8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D870A733-BA2D-8441-8134-EAAA27BBCE4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="5"/>
+    <workbookView xWindow="3560" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,15 @@
     <sheet name="20220430" sheetId="6" r:id="rId5"/>
     <sheet name="20220530" sheetId="7" r:id="rId6"/>
     <sheet name="20220628" sheetId="8" r:id="rId7"/>
+    <sheet name="20220708-09" sheetId="9" r:id="rId8"/>
+    <sheet name="20220709-12" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="306">
   <si>
     <t>Sat_type</t>
   </si>
@@ -737,13 +739,220 @@
   </si>
   <si>
     <t>Suggested SMI</t>
+  </si>
+  <si>
+    <t>Left Trim</t>
+  </si>
+  <si>
+    <t>Right Trim</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220708_t1028229_e1029471_b55417_c20220708114853669027_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1028229</t>
+  </si>
+  <si>
+    <t>e1029471</t>
+  </si>
+  <si>
+    <t>b55417_c20220708114853669027</t>
+  </si>
+  <si>
+    <t>5.2526e-08; -0.00021787; 0.30049;</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>80 (1 agg zone)</t>
+  </si>
+  <si>
+    <t>3881 (1 agg zone)</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220708_t1200507_e1202149_b55418_c20220708132945470556_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1200507</t>
+  </si>
+  <si>
+    <t>e1202149</t>
+  </si>
+  <si>
+    <t>b55418_c20220708132945470556</t>
+  </si>
+  <si>
+    <t>8.1264e-08; -0.00030094; 0.39401;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220708_t1202161_e1203403_b55418_c20220708132944470399_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1202161</t>
+  </si>
+  <si>
+    <t>e1203403</t>
+  </si>
+  <si>
+    <t>b55418_c20220708132944470399</t>
+  </si>
+  <si>
+    <t>7.239e-08; -0.00029475; 0.42617;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220709_t1141551_e1143192_b55432_c20220709131048643861_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1141551</t>
+  </si>
+  <si>
+    <t>e1143192</t>
+  </si>
+  <si>
+    <t>b55432_c20220709131048643861</t>
+  </si>
+  <si>
+    <t>6.6862e-08; -0.0002819; 0.38631;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220709_t1143205_e1144446_b55432_c20220709131049643035_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1143205</t>
+  </si>
+  <si>
+    <t>e1144446</t>
+  </si>
+  <si>
+    <t>b55432_c20220709131049643035</t>
+  </si>
+  <si>
+    <t>1.9636e-08; -0.00020514; 0.38951;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220709_t1322552_e1324194_b55433_c20220709145128719736_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1322552</t>
+  </si>
+  <si>
+    <t>e1324194</t>
+  </si>
+  <si>
+    <t>b55433_c20220709145128719736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1159e-08; -0.00029393; 0.39357; </t>
+  </si>
+  <si>
+    <t>20220708-09 concatenated</t>
+  </si>
+  <si>
+    <t>0; -0.0002; 0.3003;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220709_t1324207_e1325448_b55433_c20220709145126882189_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1324207</t>
+  </si>
+  <si>
+    <t>e1325448</t>
+  </si>
+  <si>
+    <t>b55433_c20220709145126882189</t>
+  </si>
+  <si>
+    <t>7.4112e-08; -0.00031611; 0.4503;</t>
+  </si>
+  <si>
+    <t>330 (5 agg zone)</t>
+  </si>
+  <si>
+    <t>3905 (3 agg zone)</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220710_t1122594_e1124236_b55446_c20220710125205062517_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1122594</t>
+  </si>
+  <si>
+    <t>e1124236</t>
+  </si>
+  <si>
+    <t>b55446_c20220710125205062517</t>
+  </si>
+  <si>
+    <t>4.8737e-08; -0.00024214; 0.3685;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220710_t1303596_e1305238_b55447_c20220710143214973299_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1303596</t>
+  </si>
+  <si>
+    <t>e1305238</t>
+  </si>
+  <si>
+    <t>b55447_c20220710143214973299</t>
+  </si>
+  <si>
+    <t>9.3774e-08; -0.00031215; 0.39419;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220710_t1305250_e1306492_b55447_c20220710143211397323_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1305250</t>
+  </si>
+  <si>
+    <t>e1306492</t>
+  </si>
+  <si>
+    <t>b55447_c20220710143211397323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0497e-08; -0.00026105; 0.44024; </t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220711_t1245040_e1246281_b55461_c20220711141306789332_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>very noisy</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220710_t1124248_e1125490_b55446_c20220710125201297456_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220711_t1246294_e1247535_b55461_c20220711141309956143_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220712_t1226083_e1227325_b55475_c20220712135434753593_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220712_t1227337_e1228579_b55475_c20220712135434674748_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220711_t1105292_e1106533_b55460_c20220711123306681207_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>20220709-12 concatenated</t>
+  </si>
+  <si>
+    <t>0; -0.0003; 0.4501;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -878,8 +1087,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF028009"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1071,6 +1286,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1232,18 +1453,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2107,6 +2333,456 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>277000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>200800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>162700</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89369828-7303-254E-96D3-4E0A35441123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277000" y="1826400"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC7F958-0ED1-4540-BF92-1B06BAF620E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="7518400"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18CA4DF-2F8C-CF47-99E9-ADB785035F8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7835900" y="7531100"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>607200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>492900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E58B3F-E502-6441-9A0A-914E8A77109B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7833500" y="1801000"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDEAA27-C389-1748-B5EF-BD5ABE498424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="8343900"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>277000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61100</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>48400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBCF5554-A719-3F4C-8B57-8E72DD5F59D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="277000" y="2639200"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E49D08E-F582-A24F-929D-F340B5DE0185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8166100" y="8369300"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>823100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>708800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>61100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8E6DC6-9381-DE4F-9AEF-7A5402B2B042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8151000" y="2651900"/>
+          <a:ext cx="7112000" cy="5334000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2403,7 +3079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2446,7 +3122,7 @@
       <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2472,10 +3148,10 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>0.15</v>
       </c>
     </row>
@@ -2501,8 +3177,8 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2526,8 +3202,8 @@
       <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2551,8 +3227,8 @@
       <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2576,8 +3252,8 @@
       <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2601,8 +3277,8 @@
       <c r="G7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2623,7 +3299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2666,7 +3342,7 @@
       <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2692,10 +3368,10 @@
       <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>0.15</v>
       </c>
     </row>
@@ -2721,8 +3397,8 @@
       <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2746,8 +3422,8 @@
       <c r="G4" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2771,8 +3447,8 @@
       <c r="G5" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -2796,8 +3472,8 @@
       <c r="G6" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -2821,8 +3497,8 @@
       <c r="G7" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -2843,7 +3519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2886,7 +3562,7 @@
       <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2912,10 +3588,10 @@
       <c r="G2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>0.15</v>
       </c>
     </row>
@@ -2941,8 +3617,8 @@
       <c r="G3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -2966,8 +3642,8 @@
       <c r="G4" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -2991,8 +3667,8 @@
       <c r="G5" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3016,8 +3692,8 @@
       <c r="G6" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3041,8 +3717,8 @@
       <c r="G7" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3063,7 +3739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3106,7 +3782,7 @@
       <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3132,10 +3808,10 @@
       <c r="G2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <v>0.15</v>
       </c>
     </row>
@@ -3161,8 +3837,8 @@
       <c r="G3" t="s">
         <v>115</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3186,8 +3862,8 @@
       <c r="G4" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3211,8 +3887,8 @@
       <c r="G5" t="s">
         <v>125</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3236,8 +3912,8 @@
       <c r="G6" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3261,8 +3937,8 @@
       <c r="G7" t="s">
         <v>135</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3283,7 +3959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3326,7 +4002,7 @@
       <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3352,10 +4028,10 @@
       <c r="G2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>0.2</v>
       </c>
     </row>
@@ -3381,8 +4057,8 @@
       <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3406,8 +4082,8 @@
       <c r="G4" t="s">
         <v>150</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3431,8 +4107,8 @@
       <c r="G5" t="s">
         <v>155</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3456,8 +4132,8 @@
       <c r="G6" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3481,8 +4157,8 @@
       <c r="G7" t="s">
         <v>165</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3503,10 +4179,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3546,7 +4222,7 @@
       <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3572,10 +4248,10 @@
       <c r="G2" t="s">
         <v>176</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>0.25</v>
       </c>
     </row>
@@ -3601,8 +4277,8 @@
       <c r="G3" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3626,8 +4302,8 @@
       <c r="G4" t="s">
         <v>186</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3651,8 +4327,8 @@
       <c r="G5" t="s">
         <v>191</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3676,8 +4352,8 @@
       <c r="G6" t="s">
         <v>196</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3701,8 +4377,8 @@
       <c r="G7" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3723,7 +4399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3766,7 +4442,7 @@
       <c r="H1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3792,10 +4468,10 @@
       <c r="G2" t="s">
         <v>208</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>1.75</v>
       </c>
     </row>
@@ -3821,8 +4497,8 @@
       <c r="G3" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -3846,8 +4522,8 @@
       <c r="G4" t="s">
         <v>218</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -3871,8 +4547,8 @@
       <c r="G5" t="s">
         <v>223</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -3896,8 +4572,8 @@
       <c r="G6" t="s">
         <v>228</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3921,8 +4597,8 @@
       <c r="G7" t="s">
         <v>233</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -3940,4 +4616,520 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7FD682-1ABF-9A49-A3D3-414C8F90FDB0}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2">
+        <v>20220708</v>
+      </c>
+      <c r="C2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3">
+        <v>20220708</v>
+      </c>
+      <c r="C3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4">
+        <v>20220708</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5">
+        <v>20220709</v>
+      </c>
+      <c r="C5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6">
+        <v>20220709</v>
+      </c>
+      <c r="C6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7">
+        <v>20220709</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="G8" t="s">
+        <v>274</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="K2:K7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9577ED41-BA52-F841-B920-94C6FF0E77D6}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2">
+        <v>20220709</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B3">
+        <v>20220710</v>
+      </c>
+      <c r="C3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4">
+        <v>20220710</v>
+      </c>
+      <c r="C4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5">
+        <v>20220710</v>
+      </c>
+      <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="I2:I11"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="K2:K11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Codes/dark_frames/Data/for_antor/SNPP_2022_mooncycles.xlsx
+++ b/Codes/dark_frames/Data/for_antor/SNPP_2022_mooncycles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25524"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antor/Documents/EOG/Codes/dark_frames/Data/for_antor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D870A733-BA2D-8441-8134-EAAA27BBCE4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="13_ncr:1_{D870A733-BA2D-8441-8134-EAAA27BBCE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57CD4F9C-794C-4BCB-AEFE-EC71FBB25C22}"/>
   <bookViews>
-    <workbookView xWindow="3560" yWindow="460" windowWidth="25600" windowHeight="14180" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20220102" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,24 @@
     <sheet name="20220708-09" sheetId="9" r:id="rId8"/>
     <sheet name="20220709-12" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="314">
   <si>
     <t>Sat_type</t>
   </si>
@@ -51,6 +63,12 @@
     <t>Coeff</t>
   </si>
   <si>
+    <t>Trimming needed?</t>
+  </si>
+  <si>
+    <t>Suggested SMI</t>
+  </si>
+  <si>
     <t>SVDNB_npp_d20220101_t1227373_e1229015_b52751_c20220101135919815350_oeac_ops.h5</t>
   </si>
   <si>
@@ -66,6 +84,9 @@
     <t>4.8062e-08; -0.00021814; 0.30308;</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>SVDNB_npp_d20220101_t1229027_e1230269_b52751_c20220101135930247739_oeac_ops.h5</t>
   </si>
   <si>
@@ -141,15 +162,12 @@
     <t xml:space="preserve">5.6771e-08; -0.00023519; 0.30811; </t>
   </si>
   <si>
-    <t>None</t>
+    <t>20220102 concatenated</t>
   </si>
   <si>
     <t>0; -0.0002; 0.3029;</t>
   </si>
   <si>
-    <t>20220102 concatenated</t>
-  </si>
-  <si>
     <t>H5_Filename</t>
   </si>
   <si>
@@ -243,12 +261,12 @@
     <t xml:space="preserve">5.7229e-08; -0.00023967; 0.31149; </t>
   </si>
   <si>
+    <t>20220131 concatenated</t>
+  </si>
+  <si>
     <t>0; -0.0003; 0.3344;</t>
   </si>
   <si>
-    <t>20220131 concatenated</t>
-  </si>
-  <si>
     <t>SVDNB_npp_d20220301_t1220448_e1222090_b53588_c20220301135218783827_oebc_ops.h5</t>
   </si>
   <si>
@@ -342,100 +360,109 @@
     <t>0; -0.0003; 0.3144;</t>
   </si>
   <si>
+    <t>SVDNB_npp_d20220331_t1257380_e1259022_b54014_c20220331142714780954_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1257380</t>
+  </si>
+  <si>
+    <t>e1259022</t>
+  </si>
+  <si>
+    <t>b54014_c20220331142714780954</t>
+  </si>
+  <si>
+    <t>6.233e-08; -0.00024383; 0.31409;</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220331_t1259034_e1300276_b54014_c20220331142716335151_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1259034</t>
+  </si>
+  <si>
+    <t>e1300276</t>
+  </si>
+  <si>
+    <t>b54014_c20220331142716335151</t>
+  </si>
+  <si>
+    <t>4.6427e-08; -0.00021959; 0.30293;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220401_t1238424_e1240065_b54028_c20220401140803465564_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1238424</t>
+  </si>
+  <si>
+    <t>e1240065</t>
+  </si>
+  <si>
+    <t>b54028_c20220401140803465564</t>
+  </si>
+  <si>
+    <t>2.7246e-08; -0.0001789; 0.28824;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220401_t1240078_e1241319_b54028_c20220401140835259180_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1240078</t>
+  </si>
+  <si>
+    <t>e1241319</t>
+  </si>
+  <si>
+    <t>b54028_c20220401140835259180</t>
+  </si>
+  <si>
+    <t>4.468e-08; -0.00021595; 0.30015;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220402_t1219467_e1221109_b54042_c20220402134940754550_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1219467</t>
+  </si>
+  <si>
+    <t>e1221109</t>
+  </si>
+  <si>
+    <t>b54042_c20220402134940754550</t>
+  </si>
+  <si>
+    <t>4.9491e-08; -0.00022489; 0.30511;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220402_t1221121_e1222363_b54042_c20220402135022895476_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1221121</t>
+  </si>
+  <si>
+    <t>e1222363</t>
+  </si>
+  <si>
+    <t>b54042_c20220402135022895476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0937e-08; -0.0002153; 0.31042; </t>
+  </si>
+  <si>
     <t>20220401 concatenated</t>
   </si>
   <si>
     <t>0; -0.0002; 0.3139;</t>
   </si>
   <si>
-    <t>SVDNB_npp_d20220331_t1257380_e1259022_b54014_c20220331142714780954_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1257380</t>
-  </si>
-  <si>
-    <t>e1259022</t>
-  </si>
-  <si>
-    <t>b54014_c20220331142714780954</t>
-  </si>
-  <si>
-    <t>6.233e-08; -0.00024383; 0.31409;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220331_t1259034_e1300276_b54014_c20220331142716335151_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1259034</t>
-  </si>
-  <si>
-    <t>e1300276</t>
-  </si>
-  <si>
-    <t>b54014_c20220331142716335151</t>
-  </si>
-  <si>
-    <t>4.6427e-08; -0.00021959; 0.30293;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220401_t1238424_e1240065_b54028_c20220401140803465564_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1238424</t>
-  </si>
-  <si>
-    <t>e1240065</t>
-  </si>
-  <si>
-    <t>b54028_c20220401140803465564</t>
-  </si>
-  <si>
-    <t>2.7246e-08; -0.0001789; 0.28824;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220401_t1240078_e1241319_b54028_c20220401140835259180_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1240078</t>
-  </si>
-  <si>
-    <t>e1241319</t>
-  </si>
-  <si>
-    <t>b54028_c20220401140835259180</t>
-  </si>
-  <si>
-    <t>4.468e-08; -0.00021595; 0.30015;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220402_t1219467_e1221109_b54042_c20220402134940754550_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1219467</t>
-  </si>
-  <si>
-    <t>e1221109</t>
-  </si>
-  <si>
-    <t>b54042_c20220402134940754550</t>
-  </si>
-  <si>
-    <t>4.9491e-08; -0.00022489; 0.30511;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220402_t1221121_e1222363_b54042_c20220402135022895476_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1221121</t>
-  </si>
-  <si>
-    <t>e1222363</t>
-  </si>
-  <si>
-    <t>b54042_c20220402135022895476</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.0937e-08; -0.0002153; 0.31042; </t>
+    <t>Left Trim</t>
+  </si>
+  <si>
+    <t>Right Trim</t>
   </si>
   <si>
     <t>SVDNB_npp_d20220429_t1213522_e1215163_b54425_c20220429134423260382_oebc_ops.h5</t>
@@ -453,6 +480,15 @@
     <t>2.0739e-08; -0.00017696; 0.32695;</t>
   </si>
   <si>
+    <t>Possibly</t>
+  </si>
+  <si>
+    <t>96 (2 agg zones)</t>
+  </si>
+  <si>
+    <t>3969 (2 agg zones)</t>
+  </si>
+  <si>
     <t>SVDNB_npp_d20220429_t1215176_e1216417_b54425_c20220429134429495668_oebc_ops.h5</t>
   </si>
   <si>
@@ -528,223 +564,211 @@
     <t xml:space="preserve">6.2149e-08; -0.00024371; 0.3127; </t>
   </si>
   <si>
+    <t>20220430 concatenated</t>
+  </si>
+  <si>
     <t>0; -0.0002; 0.3268;</t>
   </si>
   <si>
-    <t>20220430 concatenated</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Trimming needed?</t>
+    <t>SVDNB_npp_d20220529_t1250458_e1252100_b54851_c20220529142312957078_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1250458</t>
+  </si>
+  <si>
+    <t>e1252100</t>
+  </si>
+  <si>
+    <t>b54851_c20220529142312957078</t>
+  </si>
+  <si>
+    <t>8.4467e-08; -0.00030583; 0.39504;</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220529_t1252112_e1253354_b54851_c20220529142318453346_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1252112</t>
+  </si>
+  <si>
+    <t>e1253354</t>
+  </si>
+  <si>
+    <t>b54851_c20220529142318453346</t>
+  </si>
+  <si>
+    <t>5.7896e-08; -0.00026921; 0.40819;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220530_t1231501_e1233143_b54865_c20220530140201018039_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1231501</t>
+  </si>
+  <si>
+    <t>e1233143</t>
+  </si>
+  <si>
+    <t>b54865_c20220530140201018039</t>
+  </si>
+  <si>
+    <t>1.0092e-07; -0.0003345; 0.41231;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220530_t1233155_e1234397_b54865_c20220530140158500294_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1233155</t>
+  </si>
+  <si>
+    <t>e1234397</t>
+  </si>
+  <si>
+    <t>b54865_c20220530140158500294</t>
+  </si>
+  <si>
+    <t>4.6004e-08; -0.00024352; 0.39527;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220531_t1212545_e1214187_b54879_c20220531134403291810_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1212545</t>
+  </si>
+  <si>
+    <t>e1214187</t>
+  </si>
+  <si>
+    <t>b54879_c20220531134403291810</t>
+  </si>
+  <si>
+    <t>1.0293e-07; -0.00033652; 0.40795;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220531_t1214199_e1215441_b54879_c20220531134411840837_oeac_ops.h5</t>
+  </si>
+  <si>
+    <t>t1214199</t>
+  </si>
+  <si>
+    <t>e1215441</t>
+  </si>
+  <si>
+    <t>b54879_c20220531134411840837</t>
+  </si>
+  <si>
+    <t>1.0704e-07; -0.00034739; 0.43725;</t>
+  </si>
+  <si>
+    <t>20220530 concatenated</t>
   </si>
   <si>
     <t>0; -0.0003; 0.3948;</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220529_t1250458_e1252100_b54851_c20220529142312957078_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1250458</t>
-  </si>
-  <si>
-    <t>e1252100</t>
-  </si>
-  <si>
-    <t>b54851_c20220529142312957078</t>
-  </si>
-  <si>
-    <t>8.4467e-08; -0.00030583; 0.39504;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220529_t1252112_e1253354_b54851_c20220529142318453346_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1252112</t>
-  </si>
-  <si>
-    <t>e1253354</t>
-  </si>
-  <si>
-    <t>b54851_c20220529142318453346</t>
-  </si>
-  <si>
-    <t>5.7896e-08; -0.00026921; 0.40819;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220530_t1231501_e1233143_b54865_c20220530140201018039_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1231501</t>
-  </si>
-  <si>
-    <t>e1233143</t>
-  </si>
-  <si>
-    <t>b54865_c20220530140201018039</t>
-  </si>
-  <si>
-    <t>1.0092e-07; -0.0003345; 0.41231;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220530_t1233155_e1234397_b54865_c20220530140158500294_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1233155</t>
-  </si>
-  <si>
-    <t>e1234397</t>
-  </si>
-  <si>
-    <t>b54865_c20220530140158500294</t>
-  </si>
-  <si>
-    <t>4.6004e-08; -0.00024352; 0.39527;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220531_t1212545_e1214187_b54879_c20220531134403291810_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1212545</t>
-  </si>
-  <si>
-    <t>e1214187</t>
-  </si>
-  <si>
-    <t>b54879_c20220531134403291810</t>
-  </si>
-  <si>
-    <t>1.0293e-07; -0.00033652; 0.40795;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220531_t1214199_e1215441_b54879_c20220531134411840837_oeac_ops.h5</t>
-  </si>
-  <si>
-    <t>t1214199</t>
-  </si>
-  <si>
-    <t>e1215441</t>
-  </si>
-  <si>
-    <t>b54879_c20220531134411840837</t>
-  </si>
-  <si>
-    <t>1.0704e-07; -0.00034739; 0.43725;</t>
-  </si>
-  <si>
-    <t>20220530 concatenated</t>
+    <t>SVDNB_npp_d20220627_t1208238_e1209480_b55262_c20220627133759055578_oebc_ops.h5</t>
+  </si>
+  <si>
+    <t>t1208238</t>
+  </si>
+  <si>
+    <t>e1209480</t>
+  </si>
+  <si>
+    <t>b55262_c20220627133759055578</t>
+  </si>
+  <si>
+    <t>1.024e-07; -0.000324; 0.41335;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220629_t1129093_e1130335_b55290_c20220629130406883513_oebc_ops.h5</t>
+  </si>
+  <si>
+    <t>t1129093</t>
+  </si>
+  <si>
+    <t>e1130335</t>
+  </si>
+  <si>
+    <t>b55290_c20220629130406883513</t>
+  </si>
+  <si>
+    <t>7.8815e-08; -0.00030676; 0.40208;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220629_t1130347_e1131589_b55290_c20220629130411355373_oebc_ops.h5</t>
+  </si>
+  <si>
+    <t>t1130347</t>
+  </si>
+  <si>
+    <t>e1131589</t>
+  </si>
+  <si>
+    <t>b55290_c20220629130411355373</t>
+  </si>
+  <si>
+    <t>4.9941e-08; -0.00025919; 0.40633;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220629_t1310077_e1311319_b55291_c20220629144828128039_oebc_ops.h5</t>
+  </si>
+  <si>
+    <t>t1310077</t>
+  </si>
+  <si>
+    <t>e1311319</t>
+  </si>
+  <si>
+    <t>b55291_c20220629144828128039</t>
+  </si>
+  <si>
+    <t>9.7406e-08; -0.00031416; 0.4027;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220629_t1311331_e1312573_b55291_c20220629144840135289_oebc_ops.h5</t>
+  </si>
+  <si>
+    <t>t1311331</t>
+  </si>
+  <si>
+    <t>e1312573</t>
+  </si>
+  <si>
+    <t>b55291_c20220629144840135289</t>
+  </si>
+  <si>
+    <t>5.905e-08; -0.00028421; 0.41474;</t>
+  </si>
+  <si>
+    <t>SVDNB_npp_d20220629_t1320056_e1321297_b55291_c20220629144927620536_oebc_ops.h5</t>
+  </si>
+  <si>
+    <t>t1320056</t>
+  </si>
+  <si>
+    <t>e1321297</t>
+  </si>
+  <si>
+    <t>b55291_c20220629144927620536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.1737e-08; -0.00024944; 0.32064; </t>
   </si>
   <si>
     <t>20220628 concatenated</t>
   </si>
   <si>
-    <t>SVDNB_npp_d20220627_t1208238_e1209480_b55262_c20220627133759055578_oebc_ops.h5</t>
-  </si>
-  <si>
-    <t>t1208238</t>
-  </si>
-  <si>
-    <t>e1209480</t>
-  </si>
-  <si>
-    <t>b55262_c20220627133759055578</t>
-  </si>
-  <si>
-    <t>1.024e-07; -0.000324; 0.41335;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220629_t1129093_e1130335_b55290_c20220629130406883513_oebc_ops.h5</t>
-  </si>
-  <si>
-    <t>t1129093</t>
-  </si>
-  <si>
-    <t>e1130335</t>
-  </si>
-  <si>
-    <t>b55290_c20220629130406883513</t>
-  </si>
-  <si>
-    <t>7.8815e-08; -0.00030676; 0.40208;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220629_t1130347_e1131589_b55290_c20220629130411355373_oebc_ops.h5</t>
-  </si>
-  <si>
-    <t>t1130347</t>
-  </si>
-  <si>
-    <t>e1131589</t>
-  </si>
-  <si>
-    <t>b55290_c20220629130411355373</t>
-  </si>
-  <si>
-    <t>4.9941e-08; -0.00025919; 0.40633;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220629_t1310077_e1311319_b55291_c20220629144828128039_oebc_ops.h5</t>
-  </si>
-  <si>
-    <t>t1310077</t>
-  </si>
-  <si>
-    <t>e1311319</t>
-  </si>
-  <si>
-    <t>b55291_c20220629144828128039</t>
-  </si>
-  <si>
-    <t>9.7406e-08; -0.00031416; 0.4027;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220629_t1311331_e1312573_b55291_c20220629144840135289_oebc_ops.h5</t>
-  </si>
-  <si>
-    <t>t1311331</t>
-  </si>
-  <si>
-    <t>e1312573</t>
-  </si>
-  <si>
-    <t>b55291_c20220629144840135289</t>
-  </si>
-  <si>
-    <t>5.905e-08; -0.00028421; 0.41474;</t>
-  </si>
-  <si>
-    <t>SVDNB_npp_d20220629_t1320056_e1321297_b55291_c20220629144927620536_oebc_ops.h5</t>
-  </si>
-  <si>
-    <t>t1320056</t>
-  </si>
-  <si>
-    <t>e1321297</t>
-  </si>
-  <si>
-    <t>b55291_c20220629144927620536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1737e-08; -0.00024944; 0.32064; </t>
-  </si>
-  <si>
     <t>0; -0.0003; 0.4131;</t>
   </si>
   <si>
-    <t>Possibly</t>
-  </si>
-  <si>
-    <t>Suggested SMI</t>
-  </si>
-  <si>
-    <t>Left Trim</t>
-  </si>
-  <si>
-    <t>Right Trim</t>
+    <t>H5 File</t>
+  </si>
+  <si>
+    <t>Granule</t>
   </si>
   <si>
     <t>Comments</t>
@@ -753,16 +777,19 @@
     <t>SVDNB_npp_d20220708_t1028229_e1029471_b55417_c20220708114853669027_oeac_ops.h5</t>
   </si>
   <si>
+    <t>npp_d20220708_t1028229_e1029471_b55417</t>
+  </si>
+  <si>
     <t>t1028229</t>
   </si>
   <si>
     <t>e1029471</t>
   </si>
   <si>
-    <t>b55417_c20220708114853669027</t>
-  </si>
-  <si>
-    <t>5.2526e-08; -0.00021787; 0.30049;</t>
+    <t>b55417_c20220708155646366494</t>
+  </si>
+  <si>
+    <t>-5.1235e-11; 2.0029e-07; -0.00038239; 0.35752;</t>
   </si>
   <si>
     <t>yes</t>
@@ -777,82 +804,91 @@
     <t>SVDNB_npp_d20220708_t1200507_e1202149_b55418_c20220708132945470556_oeac_ops.h5</t>
   </si>
   <si>
+    <t>npp_d20220708_t1200507_e1202149_b55418</t>
+  </si>
+  <si>
     <t>t1200507</t>
   </si>
   <si>
     <t>e1202149</t>
   </si>
   <si>
-    <t>b55418_c20220708132945470556</t>
-  </si>
-  <si>
-    <t>8.1264e-08; -0.00030094; 0.39401;</t>
+    <t>b55418_c20220708171941672567</t>
+  </si>
+  <si>
+    <t>-3.0777e-11; 1.5749e-07; -0.00037996; 0.41998;</t>
   </si>
   <si>
     <t>SVDNB_npp_d20220708_t1202161_e1203403_b55418_c20220708132944470399_oeac_ops.h5</t>
   </si>
   <si>
+    <t>npp_d20220708_t1202161_e1203403_b55418</t>
+  </si>
+  <si>
     <t>t1202161</t>
   </si>
   <si>
     <t>e1203403</t>
   </si>
   <si>
-    <t>b55418_c20220708132944470399</t>
-  </si>
-  <si>
-    <t>7.239e-08; -0.00029475; 0.42617;</t>
+    <t>-2.3823e-11; 1.3618e-07; -0.00036227; 0.4488;</t>
   </si>
   <si>
     <t>SVDNB_npp_d20220709_t1141551_e1143192_b55432_c20220709131048643861_oeac_ops.h5</t>
   </si>
   <si>
+    <t>npp_d20220709_t1141551_e1143192_b55432</t>
+  </si>
+  <si>
     <t>t1141551</t>
   </si>
   <si>
     <t>e1143192</t>
   </si>
   <si>
-    <t>b55432_c20220709131048643861</t>
-  </si>
-  <si>
-    <t>6.6862e-08; -0.0002819; 0.38631;</t>
+    <t>b55432_c20220709170301335227</t>
+  </si>
+  <si>
+    <t>-2.9807e-11; 1.4887e-07; -0.0003668; 0.41356;</t>
   </si>
   <si>
     <t>SVDNB_npp_d20220709_t1143205_e1144446_b55432_c20220709131049643035_oeac_ops.h5</t>
   </si>
   <si>
+    <t>npp_d20220709_t1143205_e1144446_b55432</t>
+  </si>
+  <si>
     <t>t1143205</t>
   </si>
   <si>
     <t>e1144446</t>
   </si>
   <si>
-    <t>b55432_c20220709131049643035</t>
-  </si>
-  <si>
-    <t>1.9636e-08; -0.00020514; 0.38951;</t>
+    <t>-3.5016e-11; 1.4212e-07; -0.00034108; 0.43876;</t>
   </si>
   <si>
     <t>SVDNB_npp_d20220709_t1322552_e1324194_b55433_c20220709145128719736_oeac_ops.h5</t>
   </si>
   <si>
+    <t>npp_d20220709_t1322552_e1324194_b55433</t>
+  </si>
+  <si>
     <t>t1322552</t>
   </si>
   <si>
     <t>e1324194</t>
   </si>
   <si>
-    <t>b55433_c20220709145128719736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.1159e-08; -0.00029393; 0.39357; </t>
+    <t>b55433_c20220709184404244872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-7.6114e-11; 2.6861e-07; -0.00047618; 0.44847; </t>
   </si>
   <si>
     <t>20220708-09 concatenated</t>
   </si>
   <si>
-    <t>0; -0.0002; 0.3003;</t>
+    <t>0; -0.0002; 0.3634;</t>
   </si>
   <si>
     <t>SVDNB_npp_d20220709_t1324207_e1325448_b55433_c20220709145126882189_oeac_ops.h5</t>
@@ -952,7 +988,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1093,8 +1129,14 @@
       <name val="Courier"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1292,6 +1334,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1453,12 +1501,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1468,8 +1518,11 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1998,8 +2051,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -2053,8 +2106,8 @@
       <xdr:rowOff>10300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>61100</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>708800</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>61100</xdr:rowOff>
     </xdr:to>
@@ -2100,6 +2153,53 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE4FEC7-6746-3874-EC78-5F798BA5F236}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DDB72734-904D-1547-A623-D56061C9EA03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="7553325"/>
+          <a:ext cx="7077075" cy="5314950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2113,8 +2213,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>593725</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -2163,22 +2263,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>429400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>315100</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>124600</xdr:rowOff>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A6D14C-AF74-4B42-A296-B8C44B776962}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C49BC94-318F-1578-A3FE-28AF858FBB56}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{72A6D14C-AF74-4B42-A296-B8C44B776962}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,30 +2290,66 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="429400" y="1902600"/>
-          <a:ext cx="7112000" cy="5334000"/>
+          <a:off x="457200" y="7743825"/>
+          <a:ext cx="7172325" cy="5391150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5BA90CA-47AD-AFB1-8BED-2196B2AD8175}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5C49BC94-318F-1578-A3FE-28AF858FBB56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1819275"/>
+          <a:ext cx="7048500" cy="5286375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2337,23 +2476,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>277000</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>200800</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>162700</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>48400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89369828-7303-254E-96D3-4E0A35441123}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D5CF96-BBD3-BF17-65DF-C827BB85C43F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5DC7F958-0ED1-4540-BF92-1B06BAF620E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2362,53 +2504,45 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="277000" y="1826400"/>
-          <a:ext cx="7112000" cy="5334000"/>
+          <a:off x="8362950" y="1781175"/>
+          <a:ext cx="7077075" cy="5314950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC7F958-0ED1-4540-BF92-1B06BAF620E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512F9572-4945-F5C8-043A-5E0332599BA8}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{75D5CF96-BBD3-BF17-65DF-C827BB85C43F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,53 +2551,45 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="7518400"/>
-          <a:ext cx="7112000" cy="5334000"/>
+          <a:off x="8429625" y="7334250"/>
+          <a:ext cx="6953250" cy="5219700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18CA4DF-2F8C-CF47-99E9-ADB785035F8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C27348A0-320A-2FF7-8D32-BB5B5CD94217}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{512F9572-4945-F5C8-043A-5E0332599BA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,53 +2598,45 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7835900" y="7531100"/>
-          <a:ext cx="7112000" cy="5334000"/>
+          <a:off x="133350" y="1762125"/>
+          <a:ext cx="7153275" cy="5353050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>607200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>175400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>492900</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>23000</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E58B3F-E502-6441-9A0A-914E8A77109B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6EE52A5-6FDD-52EF-F99D-226B96C760CC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C27348A0-320A-2FF7-8D32-BB5B5CD94217}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2527,30 +2645,66 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7833500" y="1801000"/>
-          <a:ext cx="7112000" cy="5334000"/>
+          <a:off x="228600" y="12820650"/>
+          <a:ext cx="7077075" cy="5305425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31AF7F36-7CE2-B1AE-5565-6946F22645CA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F6EE52A5-6FDD-52EF-F99D-226B96C760CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="171450" y="7286625"/>
+          <a:ext cx="7010400" cy="5267325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -3086,18 +3240,18 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3120,172 +3274,172 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>20220101</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>20220101</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>20220102</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>20220102</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>20220103</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>20220103</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3306,20 +3460,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3340,172 +3494,172 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>20220130</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3">
+        <v>47</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3">
         <v>20220130</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B4">
         <v>20220131</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>20220131</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>20220201</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>20220201</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3523,23 +3677,23 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3560,172 +3714,172 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2">
         <v>20220301</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="3">
+        <v>79</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>20220301</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>20220302</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>20220302</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6">
         <v>20220303</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B7">
         <v>20220303</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3742,24 +3896,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="9" max="9" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -3780,13 +3934,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -3808,144 +3962,144 @@
       <c r="G2" t="s">
         <v>110</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="H2" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>20220331</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>20220401</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>20220401</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>20220402</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>20220402</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3960,26 +4114,26 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="8" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4000,178 +4154,202 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B2">
         <v>20220429</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I2" s="4">
+        <v>145</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B3">
         <v>20220429</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B4">
         <v>20220430</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B5">
         <v>20220430</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B6">
         <v>20220501</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>160</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>20220501</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G8" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="H2:H7"/>
+    <mergeCell ref="K2:K7"/>
     <mergeCell ref="I2:I7"/>
+    <mergeCell ref="J2:J7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4180,26 +4358,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" customWidth="1"/>
+    <col min="8" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="15.95" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4220,177 +4398,201 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.95" customHeight="1">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B2">
         <v>20220529</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="4">
+        <v>180</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K2" s="6">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.95" customHeight="1">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B3">
         <v>20220529</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.95" customHeight="1">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>20220530</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.95" customHeight="1">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B5">
         <v>20220530</v>
       </c>
       <c r="C5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.95" customHeight="1">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B6">
         <v>20220531</v>
       </c>
       <c r="C6" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.95" customHeight="1">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B7">
         <v>20220531</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.95" customHeight="1">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="H2:H7"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="J2:J7"/>
     <mergeCell ref="I2:I7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4406,20 +4608,20 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4440,172 +4642,172 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B2">
         <v>20220627</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="4">
+        <v>213</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="6">
         <v>1.75</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B3">
         <v>20220629</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B4">
         <v>20220629</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <v>20220629</v>
       </c>
       <c r="C5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B6">
         <v>20220629</v>
       </c>
       <c r="C6" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>228</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B7">
         <v>20220629</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F7">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="G8" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4620,247 +4822,269 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F7FD682-1ABF-9A49-A3D3-414C8F90FDB0}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="56.125" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="33" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="12" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>237</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75">
       <c r="A2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B2">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="9">
         <v>20220708</v>
       </c>
-      <c r="C2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="D2" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="E2" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="K2" s="3">
+      <c r="F2" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G2" s="9">
+        <v>4</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L2" s="5">
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="15.75">
       <c r="A3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="9">
         <v>20220708</v>
       </c>
-      <c r="C3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D3" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75">
       <c r="A4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B4">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="9">
         <v>20220708</v>
       </c>
-      <c r="C4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D4" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G4" s="9">
+        <v>4</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.95" customHeight="1">
       <c r="A5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="9">
         <v>20220709</v>
       </c>
-      <c r="C5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D5" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75">
       <c r="A6" t="s">
-        <v>263</v>
-      </c>
-      <c r="B6">
+        <v>270</v>
+      </c>
+      <c r="B6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="9">
         <v>20220709</v>
       </c>
-      <c r="C6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D6" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G6" s="9">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75">
       <c r="A7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B7">
+        <v>275</v>
+      </c>
+      <c r="B7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="9">
         <v>20220709</v>
       </c>
-      <c r="C7" t="s">
-        <v>269</v>
-      </c>
-      <c r="D7" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>272</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D7" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="9">
+        <v>4</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G8" t="s">
-        <v>274</v>
+        <v>281</v>
+      </c>
+      <c r="H8" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="H2:H7"/>
     <mergeCell ref="I2:I7"/>
     <mergeCell ref="J2:J7"/>
     <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -4871,24 +5095,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9577ED41-BA52-F841-B920-94C6FF0E77D6}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="9.875" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4911,215 +5135,215 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>169</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>237</v>
+        <v>139</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>236</v>
+        <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B2">
         <v>20220709</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>279</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K2" s="3">
+        <v>287</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K2" s="5">
         <v>0.25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B3">
         <v>20220710</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>286</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="B4">
         <v>20220710</v>
       </c>
       <c r="C4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="E4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.95" customHeight="1">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <v>20220710</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
